--- a/src/test/java/dataEngine/PO Revision 1.xlsx
+++ b/src/test/java/dataEngine/PO Revision 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18195" windowHeight="9270"/>
@@ -51,9 +51,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>(status = 'APPR' and ponum like '48%' and historyflag = 0 and revisionnum=0 and statusdate &gt;=  '2015-05-14' and receipts = 'NONE') and ponum not in (select ponum from po where revisionnum &gt; 0) and (exists (select 1 from maximo.poline where ((linetype = 'SERVICE')) and (ponum=po.ponum and revisionnum=po.revisionnum and siteid=po.siteid)))</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -784,7 +812,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,10 +858,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -847,144 +875,144 @@
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="12">
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -993,113 +1021,113 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1108,21 +1136,21 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="16">
         <v>1</v>
@@ -1131,44 +1159,44 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1177,44 +1205,44 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
@@ -1223,44 +1251,44 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="16">
         <v>1</v>
@@ -1269,21 +1297,21 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="12">
         <v>2</v>
@@ -1292,113 +1320,113 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="16">
         <v>1</v>
@@ -1407,153 +1435,153 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33" s="16">
         <v>1000</v>
@@ -1561,21 +1589,21 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="16">
         <v>1</v>
@@ -1583,21 +1611,21 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="19">
         <v>42558</v>
@@ -1605,21 +1633,21 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="16">
         <v>1</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" s="16">
         <v>1</v>
@@ -1627,131 +1655,131 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="H37" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" s="16">
         <v>1</v>
@@ -1759,65 +1787,65 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="16">
         <v>1</v>
